--- a/Polyclinic/WebApplication/wwwroot/Report/ListCostInspection.xlsx
+++ b/Polyclinic/WebApplication/wwwroot/Report/ListCostInspection.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Rad89659e8de44e0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R205c166010d448c0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -77,48 +77,6 @@
   </x:si>
   <x:si>
     <x:t>500,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Плановый</x:t>
-  </x:si>
-  <x:si>
-    <x:t>За работу</x:t>
-  </x:si>
-  <x:si>
-    <x:t>350,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Аппарат</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итого:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>450,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Осмотр у терапевта</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Лекарства</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>За работу</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итого:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>350,00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -298,64 +256,6 @@
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
-      <x:c r="A14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c r="B15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16">
-      <x:c r="B16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17">
-      <x:c r="B17" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
-      <x:c r="A18" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19">
-      <x:c r="B19" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20">
-      <x:c r="B20" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21">
-      <x:c r="B21" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:F1"/>
